--- a/biology/Médecine/Marcel_Labbé/Marcel_Labbé.xlsx
+++ b/biology/Médecine/Marcel_Labbé/Marcel_Labbé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marcel_Labb%C3%A9</t>
+          <t>Marcel_Labbé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marcel Labbé est un médecin français né le 4 décembre 1870 à Le Havre et mort le 29 mai 1939 à Paris[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marcel Labbé est un médecin français né le 4 décembre 1870 à Le Havre et mort le 29 mai 1939 à Paris.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marcel_Labb%C3%A9</t>
+          <t>Marcel_Labbé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcel Ernest Labbé est le fils de Jean-Baptiste Labbé (1839-), professeur agrégé de philosophie au lycée de Nantes, adjoint au maire de Nantes et conseiller général de la Loire-Inférieure, et de Marie Alexandrine Émilie Bassot. Gendre de Paul Reclus, il est le père de Jean Labbé.
 Élève de l'anatomiste Joüon et de l'histologiste Albert Malherbe à l'École de médecine de Nantes, il est reçu externe des Hôpitaux de Paris en 1893 puis interne en 1898, année de sa thèse.
